--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3683.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3683.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.028549558935299</v>
+        <v>3.939725160598755</v>
       </c>
       <c r="B1">
-        <v>1.608001121850198</v>
+        <v>4.608788967132568</v>
       </c>
       <c r="C1">
-        <v>3.99137990318568</v>
+        <v>3.346324920654297</v>
       </c>
       <c r="D1">
-        <v>5.572917690925046</v>
+        <v>2.519932508468628</v>
       </c>
       <c r="E1">
-        <v>1.533689681680407</v>
+        <v>2.030664443969727</v>
       </c>
     </row>
   </sheetData>
